--- a/nmadb/501236.xlsx
+++ b/nmadb/501236.xlsx
@@ -418,16 +418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -445,7 +445,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9429750" y="2857500"/>
+          <a:off x="8620125" y="2447925"/>
           <a:ext cx="4810125" cy="3371850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/nmadb/501236.xlsx
+++ b/nmadb/501236.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\nmadata\nmadb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D657B9-B68D-4D32-B4D8-77A8577769D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="21015" windowHeight="9705"/>
+    <workbookView xWindow="480" yWindow="312" windowWidth="21012" windowHeight="9708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="old" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -357,8 +363,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,10 +413,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,7 +445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -460,7 +480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +554,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,6 +606,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,20 +799,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -822,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -845,7 +901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -874,7 +930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -897,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1991</v>
       </c>
@@ -926,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -949,7 +1005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -978,7 +1034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1027,7 +1083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1064,7 +1120,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1994</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1174,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -1138,7 +1194,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1211,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -1175,7 +1231,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1248,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -1212,7 +1268,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1285,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -1249,7 +1305,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1322,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1997</v>
       </c>
@@ -1286,7 +1342,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1359,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1323,7 +1379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1991</v>
       </c>
@@ -1363,7 +1419,7 @@
         <v>7.3943661971830998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1436,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1993</v>
       </c>
@@ -1420,7 +1476,7 @@
         <v>0.193121693121693</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1510,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1989</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1550,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1567,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1999</v>
       </c>
@@ -1534,7 +1590,7 @@
         <v>3.2967032967033003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -1588,7 +1644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1661,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1678,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1998</v>
       </c>
@@ -1642,7 +1698,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1732,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>23</v>
       </c>
@@ -1700,16 +1756,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1773,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1725,7 +1781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1733,12 +1789,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1762,7 +1818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1770,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1778,7 +1834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1786,7 +1842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1794,7 +1850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1802,7 +1858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1810,7 +1866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1821,7 +1877,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1871,7 +1927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1918,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1965,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2012,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2059,7 +2115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2106,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2153,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2200,7 +2256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2247,7 +2303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2294,7 +2350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -2341,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2388,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2435,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2482,7 +2538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2529,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2576,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2623,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2670,7 +2726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -2717,7 +2773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2764,7 +2820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2811,7 +2867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2858,7 +2914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11</v>
       </c>
@@ -2905,7 +2961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12</v>
       </c>
@@ -2952,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2999,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13</v>
       </c>
@@ -3046,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13</v>
       </c>
@@ -3093,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3140,7 +3196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3187,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3234,7 +3290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -3281,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>15</v>
       </c>
@@ -3328,7 +3384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>15</v>
       </c>
@@ -3375,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16</v>
       </c>
@@ -3422,7 +3478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16</v>
       </c>
@@ -3469,7 +3525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16</v>
       </c>
@@ -3516,7 +3572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17</v>
       </c>
@@ -3563,7 +3619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>17</v>
       </c>
@@ -3610,7 +3666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>17</v>
       </c>
@@ -3657,7 +3713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -3704,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>18</v>
       </c>
@@ -3751,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>18</v>
       </c>
@@ -3798,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>19</v>
       </c>
@@ -3845,7 +3901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>19</v>
       </c>
@@ -3892,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>19</v>
       </c>
@@ -3939,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>19</v>
       </c>
@@ -3992,12 +4048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
